--- a/AAII_Financials/Quarterly/HMPT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HMPT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="92">
   <si>
     <t>HMPT</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,40 +665,41 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -708,26 +709,29 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>442100</v>
+      </c>
+      <c r="E8" s="3">
         <v>531500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1200700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>134700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>296100</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
       </c>
@@ -737,26 +741,29 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>63400</v>
+      </c>
+      <c r="E9" s="3">
         <v>46600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>99200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>26600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>67900</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
       </c>
@@ -766,26 +773,29 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>378700</v>
+      </c>
+      <c r="E10" s="3">
         <v>484900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1101500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>108100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>228200</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
       </c>
@@ -795,8 +805,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -808,8 +821,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -837,8 +851,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -866,8 +883,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -895,26 +915,29 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E15" s="3">
         <v>1300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>4200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1500</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>4400</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
       </c>
@@ -924,8 +947,11 @@
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -934,26 +960,27 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>260000</v>
+      </c>
+      <c r="E17" s="3">
         <v>245900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>412300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>92200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>206900</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
       </c>
@@ -963,26 +990,29 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>182100</v>
+      </c>
+      <c r="E18" s="3">
         <v>285600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>788400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>42500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>89200</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
@@ -992,8 +1022,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1005,26 +1038,27 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-54800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-230500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-22000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-151200</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1034,26 +1068,29 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>197700</v>
+      </c>
+      <c r="E21" s="3">
         <v>232100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>562100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>22100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-57600</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1063,8 +1100,11 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1092,26 +1132,29 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>194900</v>
+      </c>
+      <c r="E23" s="3">
         <v>230800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>557900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>20500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-61900</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1121,26 +1164,29 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>50100</v>
+      </c>
+      <c r="E24" s="3">
         <v>49200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>149300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>4600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-14100</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1150,8 +1196,11 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1179,26 +1228,29 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>144800</v>
+      </c>
+      <c r="E26" s="3">
         <v>181600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>408600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>16000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-47900</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1208,26 +1260,29 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>149000</v>
+      </c>
+      <c r="E27" s="3">
         <v>184400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>422600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>16100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-45300</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1237,8 +1292,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1266,8 +1324,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1295,8 +1356,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1324,8 +1388,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1353,26 +1420,29 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="E32" s="3">
         <v>54800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>230500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>22000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>151200</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1382,26 +1452,29 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>149000</v>
+      </c>
+      <c r="E33" s="3">
         <v>184400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>422600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>16100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-45300</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1411,8 +1484,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1440,26 +1516,29 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>149000</v>
+      </c>
+      <c r="E35" s="3">
         <v>184400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>422600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>16100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-45300</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1469,31 +1548,34 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1503,8 +1585,11 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1516,8 +1601,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1529,20 +1615,21 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>219300</v>
+      </c>
+      <c r="E41" s="3">
         <v>165200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>271500</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1558,8 +1645,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1587,20 +1677,23 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>290600</v>
+      </c>
+      <c r="E43" s="3">
         <v>152800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>79300</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1616,8 +1709,11 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1645,8 +1741,11 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1674,20 +1773,23 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>509800</v>
+      </c>
+      <c r="E46" s="3">
         <v>318100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>350800</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1703,20 +1805,23 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>6637800</v>
+      </c>
+      <c r="E47" s="3">
         <v>5825900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>5201700</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1732,20 +1837,23 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E48" s="3">
         <v>21700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>18600</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1761,8 +1869,11 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1770,11 +1881,11 @@
         <v>10800</v>
       </c>
       <c r="E49" s="3">
+        <v>10800</v>
+      </c>
+      <c r="F49" s="3">
         <v>11100</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1790,8 +1901,11 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1819,8 +1933,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1848,20 +1965,23 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1489000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1202100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1005700</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1877,8 +1997,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1906,20 +2029,23 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8670400</v>
+      </c>
+      <c r="E54" s="3">
         <v>7378600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6587900</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1935,8 +2061,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1948,8 +2077,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1961,20 +2091,21 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>196500</v>
+      </c>
+      <c r="E57" s="3">
         <v>167500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>269000</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1990,20 +2121,23 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1446500</v>
+      </c>
+      <c r="E58" s="3">
         <v>2524200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2919900</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2019,8 +2153,11 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2048,20 +2185,23 @@
       <c r="K59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1643000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2691800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3188900</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2077,20 +2217,23 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5735900</v>
+      </c>
+      <c r="E61" s="3">
         <v>3459400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2466600</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2106,20 +2249,23 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>509200</v>
+      </c>
+      <c r="E62" s="3">
         <v>299900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>189700</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2135,8 +2281,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2164,8 +2313,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2193,8 +2345,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2222,20 +2377,23 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7888100</v>
+      </c>
+      <c r="E66" s="3">
         <v>6451100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5845200</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2251,8 +2409,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2264,8 +2425,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2293,8 +2455,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2322,8 +2487,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2351,8 +2519,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2380,20 +2551,23 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>262000</v>
+      </c>
+      <c r="E72" s="3">
         <v>408000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>223600</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2409,8 +2583,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2438,8 +2615,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2467,8 +2647,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2496,20 +2679,23 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>782300</v>
+      </c>
+      <c r="E76" s="3">
         <v>927500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>742700</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2525,8 +2711,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2554,31 +2743,34 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2588,26 +2780,29 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>149000</v>
+      </c>
+      <c r="E81" s="3">
         <v>184400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>422600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>16100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-45300</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2617,8 +2812,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2630,26 +2828,27 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E83" s="3">
         <v>1300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>4200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>4400</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2659,8 +2858,11 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2688,8 +2890,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2717,8 +2922,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2746,8 +2954,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2775,8 +2986,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2804,26 +3018,29 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1911400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-950100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-385100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-231100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-975600</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2833,8 +3050,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2846,26 +3066,27 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-9900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3600</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
@@ -2875,8 +3096,11 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2904,8 +3128,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2933,26 +3160,29 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-9900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5400</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
@@ -2962,8 +3192,11 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2975,13 +3208,14 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-295100</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -3004,8 +3238,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3033,8 +3270,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3062,8 +3302,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3091,26 +3334,29 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1979700</v>
+      </c>
+      <c r="E100" s="3">
         <v>838100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>626700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>230200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>986600</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3120,8 +3366,11 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3149,26 +3398,29 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>64300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-116500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>231700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-6100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>5600</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3176,6 +3428,9 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HMPT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HMPT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="92">
   <si>
     <t>HMPT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,44 +665,45 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -712,29 +713,32 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>235400</v>
+      </c>
+      <c r="E8" s="3">
         <v>442100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>531500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1200700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>134700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>296100</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
@@ -744,29 +748,32 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>69100</v>
+      </c>
+      <c r="E9" s="3">
         <v>63400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>46600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>99200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>26600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>67900</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
@@ -776,29 +783,32 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>166300</v>
+      </c>
+      <c r="E10" s="3">
         <v>378700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>484900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1101500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>108100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>228200</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
@@ -808,8 +818,11 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -822,8 +835,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -854,8 +868,11 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -886,8 +903,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -918,29 +938,32 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E15" s="3">
         <v>2800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>1300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>4200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1500</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>4400</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
@@ -950,8 +973,11 @@
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -961,29 +987,30 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>242100</v>
+      </c>
+      <c r="E17" s="3">
         <v>260000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>245900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>412300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>92200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>206900</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
@@ -993,29 +1020,32 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E18" s="3">
         <v>182100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>285600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>788400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>42500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>89200</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1025,8 +1055,11 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1039,29 +1072,30 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-106900</v>
+      </c>
+      <c r="E20" s="3">
         <v>12800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-54800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-230500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-22000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-151200</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1071,29 +1105,32 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-111300</v>
+      </c>
+      <c r="E21" s="3">
         <v>197700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>232100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>562100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>22100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-57600</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1103,8 +1140,11 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1135,29 +1175,32 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-113600</v>
+      </c>
+      <c r="E23" s="3">
         <v>194900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>230800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>557900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>20500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-61900</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1167,29 +1210,32 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="E24" s="3">
         <v>50100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>49200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>149300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>4600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-14100</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1199,8 +1245,11 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1231,29 +1280,32 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-86400</v>
+      </c>
+      <c r="E26" s="3">
         <v>144800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>181600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>408600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>16000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-47900</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1263,29 +1315,32 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-73200</v>
+      </c>
+      <c r="E27" s="3">
         <v>149000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>184400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>422600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>16100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-45300</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1295,8 +1350,11 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1327,8 +1385,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1359,8 +1420,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1391,8 +1455,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1423,29 +1490,32 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>106900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-12800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>54800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>230500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>22000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>151200</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1455,29 +1525,32 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-73200</v>
+      </c>
+      <c r="E33" s="3">
         <v>149000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>184400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>422600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>16100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-45300</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1487,8 +1560,11 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1519,29 +1595,32 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-73200</v>
+      </c>
+      <c r="E35" s="3">
         <v>149000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>184400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>422600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>16100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-45300</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1551,34 +1630,37 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1588,8 +1670,11 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1602,8 +1687,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1616,23 +1702,24 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>209900</v>
+      </c>
+      <c r="E41" s="3">
         <v>219300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>165200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>271500</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1648,8 +1735,11 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1680,23 +1770,26 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>177400</v>
+      </c>
+      <c r="E43" s="3">
         <v>290600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>152800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>79300</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1712,8 +1805,11 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1744,8 +1840,11 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1776,23 +1875,26 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>387200</v>
+      </c>
+      <c r="E46" s="3">
         <v>509800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>318100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>350800</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1808,23 +1910,26 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>6400700</v>
+      </c>
+      <c r="E47" s="3">
         <v>6637800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>5825900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>5201700</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1840,23 +1945,26 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E48" s="3">
         <v>23000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>21700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>18600</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1872,8 +1980,11 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1884,11 +1995,11 @@
         <v>10800</v>
       </c>
       <c r="F49" s="3">
+        <v>10800</v>
+      </c>
+      <c r="G49" s="3">
         <v>11100</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1904,8 +2015,11 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1936,8 +2050,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1968,23 +2085,26 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1547600</v>
+      </c>
+      <c r="E52" s="3">
         <v>1489000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1202100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1005700</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2000,8 +2120,11 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2032,23 +2155,26 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8369700</v>
+      </c>
+      <c r="E54" s="3">
         <v>8670400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7378600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6587900</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2064,8 +2190,11 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2078,8 +2207,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2092,23 +2222,24 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>146100</v>
+      </c>
+      <c r="E57" s="3">
         <v>196500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>167500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>269000</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2124,23 +2255,26 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>988200</v>
+      </c>
+      <c r="E58" s="3">
         <v>1446500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2524200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2919900</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2156,8 +2290,11 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2188,23 +2325,26 @@
       <c r="L59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1134400</v>
+      </c>
+      <c r="E60" s="3">
         <v>1643000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2691800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3188900</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2220,23 +2360,26 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6224100</v>
+      </c>
+      <c r="E61" s="3">
         <v>5735900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3459400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2466600</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2252,23 +2395,26 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>301800</v>
+      </c>
+      <c r="E62" s="3">
         <v>509200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>299900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>189700</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2284,8 +2430,11 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2316,8 +2465,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2348,8 +2500,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2380,23 +2535,26 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7660300</v>
+      </c>
+      <c r="E66" s="3">
         <v>7888100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6451100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5845200</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2412,8 +2570,11 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2426,8 +2587,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2458,8 +2620,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2490,8 +2655,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2522,8 +2690,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2554,23 +2725,26 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>188800</v>
+      </c>
+      <c r="E72" s="3">
         <v>262000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>408000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>223600</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2586,8 +2760,11 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2618,8 +2795,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2650,8 +2830,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2682,23 +2865,26 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>709300</v>
+      </c>
+      <c r="E76" s="3">
         <v>782300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>927500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>742700</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2714,8 +2900,11 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2746,34 +2935,37 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2783,29 +2975,32 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-73200</v>
+      </c>
+      <c r="E81" s="3">
         <v>149000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>184400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>422600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>16100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-45300</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2815,8 +3010,11 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2829,29 +3027,30 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E83" s="3">
         <v>2800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>4200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4400</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2861,8 +3060,11 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2893,8 +3095,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2925,8 +3130,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2957,8 +3165,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2989,8 +3200,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3021,29 +3235,32 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-472800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1911400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-950100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-385100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-231100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-975600</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3053,8 +3270,11 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3067,29 +3287,30 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-9900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3600</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3099,8 +3320,11 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3131,8 +3355,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3163,29 +3390,32 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-21400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-9900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5400</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3195,8 +3425,11 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3209,17 +3442,18 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
         <v>-295100</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
@@ -3241,8 +3475,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3273,8 +3510,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3305,8 +3545,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3337,29 +3580,32 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>485900</v>
+      </c>
+      <c r="E100" s="3">
         <v>1979700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>838100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>626700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>230200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>986600</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3369,8 +3615,11 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3401,29 +3650,32 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E102" s="3">
         <v>64300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-116500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>231700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-6100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>5600</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3431,6 +3683,9 @@
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HMPT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HMPT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="92">
   <si>
     <t>HMPT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,47 +665,50 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
-        <v>43830</v>
-      </c>
       <c r="I7" s="2">
-        <v>43738</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
+        <v>44012</v>
+      </c>
+      <c r="J7" s="2">
+        <v>43921</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
@@ -716,31 +719,34 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>316600</v>
+      </c>
+      <c r="E8" s="3">
         <v>235400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>442100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>531500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1200700</v>
       </c>
-      <c r="H8" s="3">
-        <v>134700</v>
-      </c>
       <c r="I8" s="3">
-        <v>296100</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
+        <v>431600</v>
+      </c>
+      <c r="J8" s="3">
+        <v>175100</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -751,31 +757,34 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>68800</v>
+      </c>
+      <c r="E9" s="3">
         <v>69100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>63400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>46600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>99200</v>
       </c>
-      <c r="H9" s="3">
-        <v>26600</v>
-      </c>
       <c r="I9" s="3">
-        <v>67900</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
+        <v>30300</v>
+      </c>
+      <c r="J9" s="3">
+        <v>30700</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -786,31 +795,34 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>247800</v>
+      </c>
+      <c r="E10" s="3">
         <v>166300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>378700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>484900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1101500</v>
       </c>
-      <c r="H10" s="3">
-        <v>108100</v>
-      </c>
       <c r="I10" s="3">
-        <v>228200</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
+        <v>401300</v>
+      </c>
+      <c r="J10" s="3">
+        <v>144400</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -821,8 +833,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -836,8 +851,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -871,8 +887,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -906,8 +925,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -941,8 +963,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -950,23 +975,23 @@
         <v>2400</v>
       </c>
       <c r="E15" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F15" s="3">
         <v>2800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>4200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J15" s="3">
         <v>1500</v>
       </c>
-      <c r="I15" s="3">
-        <v>4400</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
@@ -976,8 +1001,11 @@
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -988,31 +1016,32 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>220900</v>
+      </c>
+      <c r="E17" s="3">
         <v>242100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>260000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>245900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>412300</v>
       </c>
-      <c r="H17" s="3">
-        <v>92200</v>
-      </c>
       <c r="I17" s="3">
-        <v>206900</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+        <v>132700</v>
+      </c>
+      <c r="J17" s="3">
+        <v>99900</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1023,31 +1052,34 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>95700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-6700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>182100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>285600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>788400</v>
       </c>
-      <c r="H18" s="3">
-        <v>42500</v>
-      </c>
       <c r="I18" s="3">
-        <v>89200</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+        <v>298900</v>
+      </c>
+      <c r="J18" s="3">
+        <v>75200</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1058,8 +1090,11 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1073,31 +1108,32 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-106900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>12800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-54800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-230500</v>
       </c>
-      <c r="H20" s="3">
-        <v>-22000</v>
-      </c>
       <c r="I20" s="3">
-        <v>-151200</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+        <v>-72200</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-91600</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1108,31 +1144,34 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>101700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-111300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>197700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>232100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>562100</v>
       </c>
-      <c r="H21" s="3">
-        <v>22100</v>
-      </c>
       <c r="I21" s="3">
-        <v>-57600</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
+        <v>228100</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-14900</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1143,8 +1182,11 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1178,31 +1220,34 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>99300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-113600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>194900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>230800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>557900</v>
       </c>
-      <c r="H23" s="3">
-        <v>20500</v>
-      </c>
       <c r="I23" s="3">
-        <v>-61900</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+        <v>226700</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-16400</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1213,31 +1258,34 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>27300</v>
+      </c>
+      <c r="E24" s="3">
         <v>-27200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>50100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>49200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>149300</v>
       </c>
-      <c r="H24" s="3">
-        <v>4600</v>
-      </c>
       <c r="I24" s="3">
-        <v>-14100</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+        <v>59500</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-3500</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
@@ -1248,8 +1296,11 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1283,31 +1334,34 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>71900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-86400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>144800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>181600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>408600</v>
       </c>
-      <c r="H26" s="3">
-        <v>16000</v>
-      </c>
       <c r="I26" s="3">
-        <v>-47900</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+        <v>167200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-12900</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1318,31 +1372,34 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>71200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-73200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>149000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>184400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>422600</v>
       </c>
-      <c r="H27" s="3">
-        <v>16100</v>
-      </c>
       <c r="I27" s="3">
-        <v>-45300</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+        <v>169000</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-10500</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1353,8 +1410,11 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1388,8 +1448,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1423,8 +1486,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1458,8 +1524,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1493,31 +1562,34 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E32" s="3">
         <v>106900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-12800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>54800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>230500</v>
       </c>
-      <c r="H32" s="3">
-        <v>22000</v>
-      </c>
       <c r="I32" s="3">
-        <v>151200</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+        <v>72200</v>
+      </c>
+      <c r="J32" s="3">
+        <v>91600</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1528,31 +1600,34 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>71200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-73200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>149000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>184400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>422600</v>
       </c>
-      <c r="H33" s="3">
-        <v>16100</v>
-      </c>
       <c r="I33" s="3">
-        <v>-45300</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+        <v>169000</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-10500</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1563,8 +1638,11 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1598,31 +1676,34 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>71200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-73200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>149000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>184400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>422600</v>
       </c>
-      <c r="H35" s="3">
-        <v>16100</v>
-      </c>
       <c r="I35" s="3">
-        <v>-45300</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+        <v>169000</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-10500</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1633,36 +1714,39 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
-        <v>43830</v>
-      </c>
       <c r="I38" s="2">
-        <v>43738</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
+        <v>44012</v>
+      </c>
+      <c r="J38" s="2">
+        <v>43921</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
@@ -1673,8 +1757,11 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1688,8 +1775,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1703,26 +1791,27 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>160600</v>
+      </c>
+      <c r="E41" s="3">
         <v>209900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>219300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>165200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>271500</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1738,8 +1827,11 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1773,26 +1865,29 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>117500</v>
+      </c>
+      <c r="E43" s="3">
         <v>177400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>290600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>152800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>79300</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1808,8 +1903,11 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1843,8 +1941,11 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1878,26 +1979,29 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>278200</v>
+      </c>
+      <c r="E46" s="3">
         <v>387200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>509800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>318100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>350800</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1913,26 +2017,29 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>6945300</v>
+      </c>
+      <c r="E47" s="3">
         <v>6400700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>6637800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>5825900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>5201700</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1948,26 +2055,29 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>22900</v>
+      </c>
+      <c r="E48" s="3">
         <v>23400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>23000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>21700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>18600</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1983,8 +2093,11 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1998,11 +2111,11 @@
         <v>10800</v>
       </c>
       <c r="G49" s="3">
+        <v>10800</v>
+      </c>
+      <c r="H49" s="3">
         <v>11100</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2018,8 +2131,11 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2053,8 +2169,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2088,26 +2207,29 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1720900</v>
+      </c>
+      <c r="E52" s="3">
         <v>1547600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1489000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1202100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1005700</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2123,8 +2245,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2158,26 +2283,29 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8978100</v>
+      </c>
+      <c r="E54" s="3">
         <v>8369700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8670400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7378600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6587900</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2193,8 +2321,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2208,8 +2339,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2223,26 +2355,27 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>127800</v>
+      </c>
+      <c r="E57" s="3">
         <v>146100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>196500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>167500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>269000</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2258,26 +2391,29 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>265100</v>
+      </c>
+      <c r="E58" s="3">
         <v>988200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1446500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2524200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2919900</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2293,8 +2429,11 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2328,26 +2467,29 @@
       <c r="M59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>392900</v>
+      </c>
+      <c r="E60" s="3">
         <v>1134400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1643000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2691800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3188900</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2363,26 +2505,29 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7374200</v>
+      </c>
+      <c r="E61" s="3">
         <v>6224100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5735900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3459400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2466600</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2398,26 +2543,29 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>449700</v>
+      </c>
+      <c r="E62" s="3">
         <v>301800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>509200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>299900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>189700</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2433,8 +2581,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2468,8 +2619,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2503,8 +2657,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2538,26 +2695,29 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8216900</v>
+      </c>
+      <c r="E66" s="3">
         <v>7660300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7888100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6451100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5845200</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2573,8 +2733,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2588,8 +2751,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2623,8 +2787,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2658,8 +2825,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2693,8 +2863,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2728,26 +2901,29 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>239100</v>
+      </c>
+      <c r="E72" s="3">
         <v>188800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>262000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>408000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>223600</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2763,8 +2939,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2798,8 +2977,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2833,8 +3015,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2868,26 +3053,29 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>761200</v>
+      </c>
+      <c r="E76" s="3">
         <v>709300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>782300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>927500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>742700</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2903,8 +3091,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2938,36 +3129,39 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
-        <v>43830</v>
-      </c>
       <c r="I80" s="2">
-        <v>43738</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
+        <v>44012</v>
+      </c>
+      <c r="J80" s="2">
+        <v>43921</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
@@ -2978,31 +3172,34 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>71200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-73200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>149000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>184400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>422600</v>
       </c>
-      <c r="H81" s="3">
-        <v>16100</v>
-      </c>
       <c r="I81" s="3">
-        <v>-45300</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+        <v>169000</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-10500</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3013,8 +3210,11 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3028,8 +3228,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3037,23 +3238,23 @@
         <v>2400</v>
       </c>
       <c r="E83" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F83" s="3">
         <v>2800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>4200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J83" s="3">
         <v>1500</v>
       </c>
-      <c r="I83" s="3">
-        <v>4400</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3063,8 +3264,11 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3098,8 +3302,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3133,8 +3340,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3168,8 +3378,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3203,8 +3416,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3238,31 +3454,34 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1273300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-472800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1911400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-950100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-385100</v>
       </c>
-      <c r="H89" s="3">
-        <v>-231100</v>
-      </c>
       <c r="I89" s="3">
-        <v>-975600</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+        <v>25700</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-202200</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3273,8 +3492,11 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3288,31 +3510,32 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-9900</v>
       </c>
-      <c r="H91" s="3">
-        <v>-2100</v>
-      </c>
       <c r="I91" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+        <v>-3300</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-2400</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3323,8 +3546,11 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3358,8 +3584,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3393,31 +3622,34 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>95200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-21400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-9900</v>
       </c>
-      <c r="H94" s="3">
-        <v>-5200</v>
-      </c>
       <c r="I94" s="3">
-        <v>-5400</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+        <v>-3300</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-2400</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3428,8 +3660,11 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3443,8 +3678,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3452,7 +3688,7 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-295100</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -3478,8 +3714,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3513,8 +3752,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3548,8 +3790,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3583,31 +3828,34 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1128300</v>
+      </c>
+      <c r="E100" s="3">
         <v>485900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1979700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>838100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>626700</v>
       </c>
-      <c r="H100" s="3">
-        <v>230200</v>
-      </c>
       <c r="I100" s="3">
-        <v>986600</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+        <v>65800</v>
+      </c>
+      <c r="J100" s="3">
+        <v>210900</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3618,8 +3866,11 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3653,31 +3904,34 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-49700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-8300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>64300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-116500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>231700</v>
       </c>
-      <c r="H102" s="3">
-        <v>-6100</v>
-      </c>
       <c r="I102" s="3">
-        <v>5600</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+        <v>88200</v>
+      </c>
+      <c r="J102" s="3">
+        <v>6300</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
@@ -3686,6 +3940,9 @@
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HMPT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HMPT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="92">
   <si>
     <t>HMPT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,54 +665,54 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
@@ -722,35 +722,38 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>250700</v>
+      </c>
+      <c r="E8" s="3">
         <v>316600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>235400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>442100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>531500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1200700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>431600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>175100</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
@@ -760,35 +763,38 @@
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>64000</v>
+      </c>
+      <c r="E9" s="3">
         <v>68800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>69100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>63400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>46600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>99200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>30300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>30700</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
@@ -798,35 +804,38 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>186700</v>
+      </c>
+      <c r="E10" s="3">
         <v>247800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>166300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>378700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>484900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1101500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>401300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>144400</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
@@ -836,8 +845,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -852,8 +864,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,8 +903,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,8 +944,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -966,35 +985,38 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="E15" s="3">
         <v>2400</v>
       </c>
       <c r="F15" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G15" s="3">
         <v>2800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>4200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1500</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1004,8 +1026,11 @@
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1017,35 +1042,36 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>199000</v>
+      </c>
+      <c r="E17" s="3">
         <v>220900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>242100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>260000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>245900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>412300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>132700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>99900</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1055,35 +1081,38 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>51700</v>
+      </c>
+      <c r="E18" s="3">
         <v>95700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-6700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>182100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>285600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>788400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>298900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>75200</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1093,8 +1122,11 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1109,35 +1141,36 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="E20" s="3">
         <v>3500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-106900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>12800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-54800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-230500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-72200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-91600</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1147,35 +1180,38 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>30900</v>
+      </c>
+      <c r="E21" s="3">
         <v>101700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-111300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>197700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>232100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>562100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>228100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-14900</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1185,8 +1221,11 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1223,35 +1262,38 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>28300</v>
+      </c>
+      <c r="E23" s="3">
         <v>99300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-113600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>194900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>230800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>557900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>226700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-16400</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1261,35 +1303,38 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E24" s="3">
         <v>27300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-27200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>50100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>49200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>149300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>59500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-3500</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1299,8 +1344,11 @@
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1337,35 +1385,38 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E26" s="3">
         <v>71900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-86400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>144800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>181600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>408600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>167200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-12900</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1375,35 +1426,38 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E27" s="3">
         <v>71200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-73200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>149000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>184400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>422600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>169000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-10500</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1413,8 +1467,11 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1451,8 +1508,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1489,8 +1549,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1527,8 +1590,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1565,35 +1631,38 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>106900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-12800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>54800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>230500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>72200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>91600</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1603,35 +1672,38 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E33" s="3">
         <v>71200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-73200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>149000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>184400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>422600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>169000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-10500</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1641,8 +1713,11 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1679,35 +1754,38 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E35" s="3">
         <v>71200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-73200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>149000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>184400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>422600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>169000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-10500</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1717,40 +1795,43 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1760,8 +1841,11 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1776,8 +1860,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1792,29 +1877,30 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>171000</v>
+      </c>
+      <c r="E41" s="3">
         <v>160600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>209900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>219300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>165200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>271500</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1830,8 +1916,11 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1868,29 +1957,32 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>114700</v>
+      </c>
+      <c r="E43" s="3">
         <v>117500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>177400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>290600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>152800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>79300</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1906,8 +1998,11 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1944,8 +2039,11 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1982,29 +2080,32 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>285700</v>
+      </c>
+      <c r="E46" s="3">
         <v>278200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>387200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>509800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>318100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>350800</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2020,29 +2121,32 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>5172400</v>
+      </c>
+      <c r="E47" s="3">
         <v>6945300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>6400700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>6637800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>5825900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>5201700</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2058,29 +2162,32 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>21900</v>
+      </c>
+      <c r="E48" s="3">
         <v>22900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>23400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>23000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>21700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>18600</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2096,8 +2203,11 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2114,11 +2224,11 @@
         <v>10800</v>
       </c>
       <c r="H49" s="3">
+        <v>10800</v>
+      </c>
+      <c r="I49" s="3">
         <v>11100</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2134,8 +2244,11 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2172,8 +2285,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2210,29 +2326,32 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1767500</v>
+      </c>
+      <c r="E52" s="3">
         <v>1720900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1547600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1489000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1202100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1005700</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2248,8 +2367,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2286,29 +2408,32 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7258300</v>
+      </c>
+      <c r="E54" s="3">
         <v>8978100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8369700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8670400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7378600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6587900</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2324,8 +2449,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2340,8 +2468,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2356,29 +2485,30 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>138200</v>
+      </c>
+      <c r="E57" s="3">
         <v>127800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>146100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>196500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>167500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>269000</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2394,29 +2524,32 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>65200</v>
+      </c>
+      <c r="E58" s="3">
         <v>265100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>988200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1446500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2524200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2919900</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2432,8 +2565,11 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2470,29 +2606,32 @@
       <c r="N59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>203400</v>
+      </c>
+      <c r="E60" s="3">
         <v>392900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1134400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1643000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2691800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3188900</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2508,29 +2647,32 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5945200</v>
+      </c>
+      <c r="E61" s="3">
         <v>7374200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6224100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5735900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3459400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2466600</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2546,29 +2688,32 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>333100</v>
+      </c>
+      <c r="E62" s="3">
         <v>449700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>301800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>509200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>299900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>189700</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2584,8 +2729,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2622,8 +2770,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2660,8 +2811,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2698,29 +2852,32 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6481700</v>
+      </c>
+      <c r="E66" s="3">
         <v>8216900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7660300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7888100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6451100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5845200</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2736,8 +2893,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2752,8 +2912,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2790,8 +2951,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2828,8 +2992,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2866,8 +3033,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2904,29 +3074,32 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>252800</v>
+      </c>
+      <c r="E72" s="3">
         <v>239100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>188800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>262000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>408000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>223600</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2942,8 +3115,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2980,8 +3156,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3018,8 +3197,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3056,29 +3238,32 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>776700</v>
+      </c>
+      <c r="E76" s="3">
         <v>761200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>709300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>782300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>927500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>742700</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3094,8 +3279,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3132,40 +3320,43 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3175,35 +3366,38 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E81" s="3">
         <v>71200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-73200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>149000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>184400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>422600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>169000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-10500</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3213,8 +3407,11 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3229,35 +3426,36 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="E83" s="3">
         <v>2400</v>
       </c>
       <c r="F83" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G83" s="3">
         <v>2800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1500</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3267,8 +3465,11 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3305,8 +3506,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3343,8 +3547,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3381,8 +3588,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3419,8 +3629,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3457,35 +3670,38 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1301300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1273300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-472800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1911400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-950100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-385100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>25700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-202200</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3495,8 +3711,11 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3511,35 +3730,36 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-9900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2400</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3549,8 +3769,11 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3587,8 +3810,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3625,35 +3851,38 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>138800</v>
+      </c>
+      <c r="E94" s="3">
         <v>95200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-21400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-9900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2400</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3663,8 +3892,11 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3679,13 +3911,14 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-5600</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -3717,8 +3950,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3755,8 +3991,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3793,8 +4032,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3831,35 +4073,38 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1435500</v>
+      </c>
+      <c r="E100" s="3">
         <v>1128300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>485900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1979700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>838100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>626700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>65800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>210900</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3869,8 +4114,11 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3907,35 +4155,38 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-49700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-8300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>64300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-116500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>231700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>88200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>6300</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3943,6 +4194,9 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HMPT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HMPT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="92">
   <si>
     <t>HMPT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,191 +665,217 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>128800</v>
+      </c>
+      <c r="E8" s="3">
+        <v>174100</v>
+      </c>
+      <c r="F8" s="3">
         <v>250700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>316600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>235400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>442100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>531500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1200700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>431600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>175100</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>47900</v>
+      </c>
+      <c r="F9" s="3">
         <v>64000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>68800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>69100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>63400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>46600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>99200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>30300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>30700</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>85800</v>
+      </c>
+      <c r="E10" s="3">
+        <v>126200</v>
+      </c>
+      <c r="F10" s="3">
         <v>186700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>247800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>166300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>378700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>484900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>1101500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>401300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>144400</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -865,8 +891,10 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -906,8 +934,14 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -947,8 +981,14 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -988,8 +1028,14 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -997,40 +1043,46 @@
         <v>2600</v>
       </c>
       <c r="E15" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F15" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G15" s="3">
         <v>2400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>2400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>2800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>1300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>4200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>1400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>1500</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1043,90 +1095,104 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>148300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>169800</v>
+      </c>
+      <c r="F17" s="3">
         <v>199000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>220900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>242100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>260000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>245900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>412300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>132700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>99900</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F18" s="3">
         <v>51700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>95700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-6700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>182100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>285600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>788400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>298900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>75200</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1142,90 +1208,104 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-29900</v>
+      </c>
+      <c r="E20" s="3">
+        <v>17200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-23300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>3500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-106900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>12800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-54800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-230500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-72200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-91600</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-46800</v>
+      </c>
+      <c r="E21" s="3">
+        <v>24100</v>
+      </c>
+      <c r="F21" s="3">
         <v>30900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>101700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-111300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>197700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>232100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>562100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>228100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-14900</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1265,90 +1345,108 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-49400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>21500</v>
+      </c>
+      <c r="F23" s="3">
         <v>28300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>99300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-113600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>194900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>230800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>557900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>226700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-16400</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F24" s="3">
         <v>7700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>27300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-27200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>50100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>49200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>149300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>59500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-3500</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1388,90 +1486,108 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-35300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>17100</v>
+      </c>
+      <c r="F26" s="3">
         <v>20600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>71900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-86400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>144800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>181600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>408600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>167200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-12900</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-44400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>11900</v>
+      </c>
+      <c r="F27" s="3">
         <v>19300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>71200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-73200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>149000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>184400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>422600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>169000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-10500</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1511,8 +1627,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1552,8 +1674,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1593,8 +1721,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1634,90 +1768,108 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>29900</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="F32" s="3">
         <v>23300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-3500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>106900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-12800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>54800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>230500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>72200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>91600</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-44400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>11900</v>
+      </c>
+      <c r="F33" s="3">
         <v>19300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>71200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-73200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>149000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>184400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>422600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>169000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-10500</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1757,95 +1909,113 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-44400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>11900</v>
+      </c>
+      <c r="F35" s="3">
         <v>19300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>71200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-73200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>149000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>184400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>422600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>169000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-10500</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1861,8 +2031,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1878,35 +2050,37 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>135800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>160700</v>
+      </c>
+      <c r="F41" s="3">
         <v>171000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>160600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>209900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>219300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>165200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>271500</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1919,8 +2093,14 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1960,35 +2140,41 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>177000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>218000</v>
+      </c>
+      <c r="F43" s="3">
         <v>114700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>117500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>177400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>290600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>152800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>79300</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2001,8 +2187,14 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2042,8 +2234,14 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2083,35 +2281,41 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>312800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>378700</v>
+      </c>
+      <c r="F46" s="3">
         <v>285700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>278200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>387200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>509800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>318100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>350800</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2124,35 +2328,41 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2135700</v>
+      </c>
+      <c r="E47" s="3">
+        <v>2970400</v>
+      </c>
+      <c r="F47" s="3">
         <v>5172400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>6945300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>6400700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>6637800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>5825900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>5201700</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2165,35 +2375,41 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>21400</v>
+      </c>
+      <c r="F48" s="3">
         <v>21900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>22900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>23400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>23000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>21700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>18600</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2206,8 +2422,14 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2227,14 +2449,14 @@
         <v>10800</v>
       </c>
       <c r="I49" s="3">
+        <v>10800</v>
+      </c>
+      <c r="J49" s="3">
+        <v>10800</v>
+      </c>
+      <c r="K49" s="3">
         <v>11100</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2247,8 +2469,14 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2288,8 +2516,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2329,35 +2563,41 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1597000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1817700</v>
+      </c>
+      <c r="F52" s="3">
         <v>1767500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>1720900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>1547600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>1489000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>1202100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>1005700</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2370,8 +2610,14 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2411,35 +2657,41 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4074400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>5199000</v>
+      </c>
+      <c r="F54" s="3">
         <v>7258300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>8978100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>8369700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>8670400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>7378600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>6587900</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2452,8 +2704,14 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2469,8 +2727,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2486,35 +2746,37 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>106000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>135500</v>
+      </c>
+      <c r="F57" s="3">
         <v>138200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>127800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>146100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>196500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>167500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>269000</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2527,35 +2789,41 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>117100</v>
+      </c>
+      <c r="E58" s="3">
+        <v>81300</v>
+      </c>
+      <c r="F58" s="3">
         <v>65200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>265100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>988200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1446500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>2524200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>2919900</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2568,8 +2836,14 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2609,35 +2883,41 @@
       <c r="O59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>223100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>216800</v>
+      </c>
+      <c r="F60" s="3">
         <v>203400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>392900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1134400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1643000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2691800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>3188900</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2650,35 +2930,41 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2755900</v>
+      </c>
+      <c r="E61" s="3">
+        <v>3667100</v>
+      </c>
+      <c r="F61" s="3">
         <v>5945200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>7374200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>6224100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>5735900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>3459400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>2466600</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2691,35 +2977,41 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>363000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>531800</v>
+      </c>
+      <c r="F62" s="3">
         <v>333100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>449700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>301800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>509200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>299900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>189700</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2732,8 +3024,14 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2773,8 +3071,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2814,8 +3118,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2855,35 +3165,41 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3342000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>4415700</v>
+      </c>
+      <c r="F66" s="3">
         <v>6481700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>8216900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>7660300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>7888100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>6451100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>5845200</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2896,8 +3212,14 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2913,8 +3235,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2954,8 +3278,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2995,8 +3325,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3036,8 +3372,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3077,35 +3419,41 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>220700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>259100</v>
+      </c>
+      <c r="F72" s="3">
         <v>252800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>239100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>188800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>262000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>408000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>223600</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3118,8 +3466,14 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3159,8 +3513,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3200,8 +3560,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3241,35 +3607,41 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>732400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>783300</v>
+      </c>
+      <c r="F76" s="3">
         <v>776700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>761200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>709300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>782300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>927500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>742700</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3282,8 +3654,14 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3323,95 +3701,113 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-44400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>11900</v>
+      </c>
+      <c r="F81" s="3">
         <v>19300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>71200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-73200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>149000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>184400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>422600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>169000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-10500</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3427,8 +3823,10 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3436,40 +3834,46 @@
         <v>2600</v>
       </c>
       <c r="E83" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F83" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G83" s="3">
         <v>2400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>2400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>2800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>1300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>4200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>1400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>1500</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3509,8 +3913,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3550,8 +3960,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3591,8 +4007,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3632,8 +4054,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3673,49 +4101,61 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>655000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>1896000</v>
+      </c>
+      <c r="F89" s="3">
         <v>1301300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1273300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-472800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-1911400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-950100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-385100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>25700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-202200</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3731,49 +4171,57 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>700</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-2000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-2700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-4100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-4500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-9900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-3300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-2400</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3813,8 +4261,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3854,49 +4308,61 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>230100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>379800</v>
+      </c>
+      <c r="F94" s="3">
         <v>138800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>95200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-21400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-4100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-4500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-9900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-3300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-2400</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3912,8 +4378,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3921,10 +4389,10 @@
         <v>-5600</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-5600</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-5600</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -3953,8 +4421,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3994,8 +4468,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4035,8 +4515,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4076,49 +4562,61 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-919900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-2285900</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1435500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>1128300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>485900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>1979700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>838100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>626700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>65800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>210900</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4158,45 +4656,57 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-34800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="F102" s="3">
         <v>4700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-49700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-8300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>64300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-116500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>231700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>88200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>6300</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HMPT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HMPT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="92">
   <si>
     <t>HMPT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,217 +665,242 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>81900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>80800</v>
+      </c>
+      <c r="F8" s="3">
         <v>128800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>174100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>250700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>316600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>235400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>442100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>531500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1200700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>431600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>175100</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>37100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>41500</v>
+      </c>
+      <c r="F9" s="3">
         <v>43000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>47900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>64000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>68800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>69100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>63400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>46600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>99200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>30300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>30700</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>44800</v>
+      </c>
+      <c r="E10" s="3">
+        <v>39300</v>
+      </c>
+      <c r="F10" s="3">
         <v>85800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>126200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>186700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>247800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>166300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>378700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>484900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1101500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>401300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>144400</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -893,8 +918,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -940,8 +967,14 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -987,8 +1020,14 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -996,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>10800</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1034,55 +1073,67 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E15" s="3">
         <v>2600</v>
-      </c>
-      <c r="E15" s="3">
-        <v>2700</v>
       </c>
       <c r="F15" s="3">
         <v>2600</v>
       </c>
       <c r="G15" s="3">
+        <v>2700</v>
+      </c>
+      <c r="H15" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I15" s="3">
         <v>2400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>2400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>2800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>1300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>4200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>1400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>1500</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1097,102 +1148,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>86900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>142000</v>
+      </c>
+      <c r="F17" s="3">
         <v>148300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>169800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>199000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>220900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>242100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>260000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>245900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>412300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>132700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>99900</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-61200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-19500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>4300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>51700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>95700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-6700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>182100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>285600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>788400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>298900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>75200</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1210,102 +1275,116 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-38800</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-46100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-29900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>17200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-23300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>3500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-106900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>12800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-54800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-230500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-72200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-91600</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-41100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-104700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-46800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>24100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>30900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>101700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-111300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>197700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>232100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>562100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>228100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-14900</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1351,102 +1430,120 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-43800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-107300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-49400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>21500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>28300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>99300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-113600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>194900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>230800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>557900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>226700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-16400</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="F24" s="3">
         <v>-14100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>4300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>7700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>27300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-27200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>50100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>49200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>149300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>59500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-3500</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1492,102 +1589,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-36800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-82300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-35300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>17100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>20600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>71900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-86400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>144800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>181600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>408600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>167200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-12900</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-36800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-94100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-44400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>11900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>19300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>71200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-73200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>149000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>184400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>422600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>169000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-10500</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1633,8 +1748,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1680,8 +1801,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1727,8 +1854,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1774,102 +1907,120 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>38800</v>
+      </c>
+      <c r="E32" s="3">
+        <v>46100</v>
+      </c>
+      <c r="F32" s="3">
         <v>29900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-17200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>23300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-3500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>106900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-12800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>54800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>230500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>72200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>91600</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-36800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-94100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-44400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>11900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>19300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>71200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-73200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>149000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>184400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>422600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>169000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-10500</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1915,107 +2066,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-36800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-94100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-44400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>11900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>19300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>71200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-73200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>149000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>184400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>422600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>169000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-10500</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2033,8 +2202,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2052,41 +2223,43 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>97200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>130300</v>
+      </c>
+      <c r="F41" s="3">
         <v>135800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>160700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>171000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>160600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>209900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>219300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>165200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>271500</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2099,8 +2272,14 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2146,41 +2325,47 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>124700</v>
+      </c>
+      <c r="E43" s="3">
+        <v>167700</v>
+      </c>
+      <c r="F43" s="3">
         <v>177000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>218000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>114700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>117500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>177400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>290600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>152800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>79300</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2193,8 +2378,14 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2240,8 +2431,14 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2287,41 +2484,47 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>221900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>298100</v>
+      </c>
+      <c r="F46" s="3">
         <v>312800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>378700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>285700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>278200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>387200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>509800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>318100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>350800</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2334,41 +2537,47 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>728900</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1112200</v>
+      </c>
+      <c r="F47" s="3">
         <v>2135700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>2970400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>5172400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>6945300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>6400700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>6637800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>5825900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>5201700</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2381,41 +2590,47 @@
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>13400</v>
+      </c>
+      <c r="F48" s="3">
         <v>18000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>21400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>21900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>22900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>23400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>23000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>21700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>18600</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2428,16 +2643,22 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>10800</v>
+        <v>0</v>
       </c>
       <c r="E49" s="3">
-        <v>10800</v>
+        <v>0</v>
       </c>
       <c r="F49" s="3">
         <v>10800</v>
@@ -2455,14 +2676,14 @@
         <v>10800</v>
       </c>
       <c r="K49" s="3">
+        <v>10800</v>
+      </c>
+      <c r="L49" s="3">
+        <v>10800</v>
+      </c>
+      <c r="M49" s="3">
         <v>11100</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2475,8 +2696,14 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2522,8 +2749,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2569,41 +2802,47 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1475700</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1658600</v>
+      </c>
+      <c r="F52" s="3">
         <v>1597000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>1817700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>1767500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>1720900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>1547600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>1489000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1202100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1005700</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2616,8 +2855,14 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2663,41 +2908,47 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2438200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3082300</v>
+      </c>
+      <c r="F54" s="3">
         <v>4074400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>5199000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>7258300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>8978100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>8369700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>8670400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>7378600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>6587900</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2710,8 +2961,14 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2729,8 +2986,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2748,41 +3007,43 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>64300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>82900</v>
+      </c>
+      <c r="F57" s="3">
         <v>106000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>135500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>138200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>127800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>146100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>196500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>167500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>269000</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2795,41 +3056,47 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>85900</v>
+      </c>
+      <c r="E58" s="3">
+        <v>194500</v>
+      </c>
+      <c r="F58" s="3">
         <v>117100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>81300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>65200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>265100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>988200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>1446500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>2524200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>2919900</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2842,8 +3109,14 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2889,41 +3162,47 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>150300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>277400</v>
+      </c>
+      <c r="F60" s="3">
         <v>223100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>216800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>203400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>392900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1134400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1643000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2691800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>3188900</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2936,41 +3215,47 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1438600</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1811900</v>
+      </c>
+      <c r="F61" s="3">
         <v>2755900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>3667100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>5945200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>7374200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>6224100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>5735900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>3459400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>2466600</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -2983,41 +3268,47 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>245800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>353800</v>
+      </c>
+      <c r="F62" s="3">
         <v>363000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>531800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>333100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>449700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>301800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>509200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>299900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>189700</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3030,8 +3321,14 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3077,8 +3374,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3124,8 +3427,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3171,41 +3480,47 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1834700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2443100</v>
+      </c>
+      <c r="F66" s="3">
         <v>3342000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>4415700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>6481700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>8216900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>7660300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>7888100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>6451100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>5845200</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3218,8 +3533,14 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3237,8 +3558,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3284,8 +3607,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3331,8 +3660,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3378,8 +3713,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3425,41 +3766,47 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>89800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>126600</v>
+      </c>
+      <c r="F72" s="3">
         <v>220700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>259100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>252800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>239100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>188800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>262000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>408000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>223600</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3472,8 +3819,14 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3519,8 +3872,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3566,8 +3925,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3613,41 +3978,47 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>603500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>639200</v>
+      </c>
+      <c r="F76" s="3">
         <v>732400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>783300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>776700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>761200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>709300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>782300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>927500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>742700</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3660,8 +4031,14 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3707,107 +4084,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-36800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-94100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-44400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>11900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>19300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>71200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-73200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>149000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>184400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>422600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>169000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-10500</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3825,55 +4220,63 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E83" s="3">
         <v>2600</v>
-      </c>
-      <c r="E83" s="3">
-        <v>2700</v>
       </c>
       <c r="F83" s="3">
         <v>2600</v>
       </c>
       <c r="G83" s="3">
+        <v>2700</v>
+      </c>
+      <c r="H83" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I83" s="3">
         <v>2400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>2400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>2800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>1300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>4200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>1400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>1500</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3919,8 +4322,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3966,8 +4375,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4013,8 +4428,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4060,8 +4481,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4107,55 +4534,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>175400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>928000</v>
+      </c>
+      <c r="F89" s="3">
         <v>655000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>1896000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>1301300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-1273300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-472800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-1911400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-950100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-385100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>25700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-202200</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4173,55 +4612,63 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F91" s="3">
         <v>700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-2200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-1500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-2000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-2700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-4100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-4500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-9900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-3300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-2400</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4267,8 +4714,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4314,55 +4767,67 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>159700</v>
+      </c>
+      <c r="E94" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F94" s="3">
         <v>230100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>379800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>138800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>95200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-21400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-4100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-4500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-9900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-3300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-2400</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4380,25 +4845,27 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-5600</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-5600</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
         <v>-5600</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-5600</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-5600</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -4427,8 +4894,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4474,8 +4947,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4521,8 +5000,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4568,55 +5053,67 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-375000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-944800</v>
+      </c>
+      <c r="F100" s="3">
         <v>-919900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-2285900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-1435500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>1128300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>485900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>1979700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>838100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>626700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>65800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>210900</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4662,51 +5159,63 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-39800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="F102" s="3">
         <v>-34800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-10100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>4700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-49700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-8300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>64300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-116500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>231700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>88200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>6300</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HMPT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HMPT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="92">
   <si>
     <t>HMPT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,72 +665,73 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
@@ -740,50 +741,53 @@
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>72200</v>
+      </c>
+      <c r="E8" s="3">
         <v>81900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>80800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>128800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>174100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>250700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>316600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>235400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>442100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>531500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1200700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>431600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>175100</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
@@ -793,50 +797,53 @@
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E9" s="3">
         <v>37100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>41500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>43000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>47900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>64000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>68800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>69100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>63400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>46600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>99200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>30300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>30700</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
@@ -846,50 +853,53 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>37200</v>
+      </c>
+      <c r="E10" s="3">
         <v>44800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>39300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>85800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>126200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>186700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>247800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>166300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>378700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>484900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1101500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>401300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>144400</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
@@ -899,8 +909,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -920,8 +933,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -973,8 +987,11 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1026,20 +1043,23 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>10800</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1052,8 +1072,8 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1079,50 +1099,53 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E15" s="3">
         <v>2800</v>
-      </c>
-      <c r="E15" s="3">
-        <v>2600</v>
       </c>
       <c r="F15" s="3">
         <v>2600</v>
       </c>
       <c r="G15" s="3">
+        <v>2600</v>
+      </c>
+      <c r="H15" s="3">
         <v>2700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>2600</v>
-      </c>
-      <c r="I15" s="3">
-        <v>2400</v>
       </c>
       <c r="J15" s="3">
         <v>2400</v>
       </c>
       <c r="K15" s="3">
+        <v>2400</v>
+      </c>
+      <c r="L15" s="3">
         <v>2800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>4200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>1500</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1132,8 +1155,11 @@
       <c r="S15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1150,50 +1176,51 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>90300</v>
+      </c>
+      <c r="E17" s="3">
         <v>86900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>142000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>148300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>169800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>199000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>220900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>242100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>260000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>245900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>412300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>132700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>99900</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1203,50 +1230,53 @@
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-5000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-61200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-19500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>4300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>51700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>95700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-6700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>182100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>285600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>788400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>298900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>75200</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1256,8 +1286,11 @@
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1277,50 +1310,51 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-159300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-38800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-46100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-29900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>17200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-23300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-106900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>12800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-54800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-230500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-72200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-91600</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1330,50 +1364,53 @@
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-173100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-41100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-104700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-46800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>24100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>30900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>101700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-111300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>197700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>232100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>562100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>228100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-14900</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1383,8 +1420,11 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1436,50 +1476,53 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-177400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-43800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-107300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-49400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>21500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>28300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>99300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-113600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>194900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>230800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>557900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>226700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-16400</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1489,50 +1532,53 @@
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-43600</v>
+      </c>
+      <c r="E24" s="3">
         <v>-7100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-25000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-14100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>4300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>7700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>27300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-27200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>50100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>49200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>149300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>59500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-3500</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1542,8 +1588,11 @@
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1595,50 +1644,53 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-133800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-36800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-82300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-35300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>17100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>20600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>71900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-86400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>144800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>181600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>408600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>167200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-12900</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1648,50 +1700,53 @@
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-133800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-36800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-94100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-44400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>11900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>19300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>71200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-73200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>149000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>184400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>422600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>169000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-10500</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1701,8 +1756,11 @@
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1754,8 +1812,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1807,8 +1868,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1860,8 +1924,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1913,50 +1980,53 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>159300</v>
+      </c>
+      <c r="E32" s="3">
         <v>38800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>46100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>29900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-17200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>23300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>106900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-12800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>54800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>230500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>72200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>91600</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1966,50 +2036,53 @@
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-133800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-36800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-94100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-44400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>11900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>19300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>71200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-73200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>149000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>184400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>422600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>169000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-10500</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2019,8 +2092,11 @@
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2072,50 +2148,53 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-133800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-36800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-94100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-44400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>11900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>19300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>71200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-73200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>149000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>184400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>422600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>169000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-10500</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,55 +2204,58 @@
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2183,8 +2265,11 @@
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2204,8 +2289,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2225,44 +2311,45 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100000</v>
+      </c>
+      <c r="E41" s="3">
         <v>97200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>130300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>135800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>160700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>171000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>160600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>209900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>219300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>165200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>271500</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2278,8 +2365,11 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2331,44 +2421,47 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>117600</v>
+      </c>
+      <c r="E43" s="3">
         <v>124700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>167700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>177000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>218000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>114700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>117500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>177400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>290600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>152800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>79300</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2384,8 +2477,11 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2437,8 +2533,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2490,44 +2589,47 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>217600</v>
+      </c>
+      <c r="E46" s="3">
         <v>221900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>298100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>312800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>378700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>285700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>278200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>387200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>509800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>318100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>350800</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2543,44 +2645,47 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>564800</v>
+      </c>
+      <c r="E47" s="3">
         <v>728900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1112200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2135700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2970400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>5172400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>6945300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>6400700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>6637800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>5825900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>5201700</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2596,44 +2701,47 @@
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E48" s="3">
         <v>11700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>13400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>18000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>21400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>21900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>22900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>23400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>23000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>21700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>18600</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2649,19 +2757,22 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>0</v>
+      <c r="D49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E49" s="3">
         <v>0</v>
       </c>
       <c r="F49" s="3">
-        <v>10800</v>
+        <v>0</v>
       </c>
       <c r="G49" s="3">
         <v>10800</v>
@@ -2682,11 +2793,11 @@
         <v>10800</v>
       </c>
       <c r="M49" s="3">
+        <v>10800</v>
+      </c>
+      <c r="N49" s="3">
         <v>11100</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2702,8 +2813,11 @@
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2755,8 +2869,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2808,44 +2925,47 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1324300</v>
+      </c>
+      <c r="E52" s="3">
         <v>1475700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1658600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1597000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1817700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1767500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1720900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1547600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1489000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1202100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1005700</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2861,8 +2981,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2914,44 +3037,47 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2113200</v>
+      </c>
+      <c r="E54" s="3">
         <v>2438200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3082300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4074400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5199000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7258300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>8978100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8369700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8670400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7378600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6587900</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2967,8 +3093,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2988,8 +3117,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3009,44 +3139,45 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>50300</v>
+      </c>
+      <c r="E57" s="3">
         <v>64300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>82900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>106000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>135500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>138200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>127800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>146100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>196500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>167500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>269000</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3062,44 +3193,47 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>91800</v>
+      </c>
+      <c r="E58" s="3">
         <v>85900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>194500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>117100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>81300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>65200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>265100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>988200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1446500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2524200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2919900</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3115,8 +3249,11 @@
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3168,44 +3305,47 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>142000</v>
+      </c>
+      <c r="E60" s="3">
         <v>150300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>277400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>223100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>216800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>203400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>392900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1134400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1643000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2691800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3188900</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3221,44 +3361,47 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1302400</v>
+      </c>
+      <c r="E61" s="3">
         <v>1438600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1811900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2755900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3667100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5945200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>7374200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6224100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5735900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3459400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2466600</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3274,44 +3417,47 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>198200</v>
+      </c>
+      <c r="E62" s="3">
         <v>245800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>353800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>363000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>531800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>333100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>449700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>301800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>509200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>299900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>189700</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3327,8 +3473,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3380,8 +3529,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3433,8 +3585,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3486,44 +3641,47 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1642600</v>
+      </c>
+      <c r="E66" s="3">
         <v>1834700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2443100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3342000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4415700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6481700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8216900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7660300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7888100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6451100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5845200</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3539,8 +3697,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3560,8 +3721,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3613,8 +3775,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3666,8 +3831,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3719,8 +3887,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3772,44 +3943,47 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-43900</v>
+      </c>
+      <c r="E72" s="3">
         <v>89800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>126600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>220700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>259100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>252800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>239100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>188800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>262000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>408000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>223600</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3825,8 +3999,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3878,8 +4055,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3931,8 +4111,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3984,44 +4167,47 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>470600</v>
+      </c>
+      <c r="E76" s="3">
         <v>603500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>639200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>732400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>783300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>776700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>761200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>709300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>782300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>927500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>742700</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4037,8 +4223,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4090,55 +4279,58 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4148,50 +4340,53 @@
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-133800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-36800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-94100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-44400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>11900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>19300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>71200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-73200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>149000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>184400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>422600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>169000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-10500</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4201,8 +4396,11 @@
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4222,50 +4420,51 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E83" s="3">
         <v>2800</v>
-      </c>
-      <c r="E83" s="3">
-        <v>2600</v>
       </c>
       <c r="F83" s="3">
         <v>2600</v>
       </c>
       <c r="G83" s="3">
+        <v>2600</v>
+      </c>
+      <c r="H83" s="3">
         <v>2700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2600</v>
-      </c>
-      <c r="I83" s="3">
-        <v>2400</v>
       </c>
       <c r="J83" s="3">
         <v>2400</v>
       </c>
       <c r="K83" s="3">
+        <v>2400</v>
+      </c>
+      <c r="L83" s="3">
         <v>2800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1500</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4275,8 +4474,11 @@
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4328,8 +4530,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4381,8 +4586,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4434,8 +4642,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4487,8 +4698,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4540,50 +4754,53 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>139200</v>
+      </c>
+      <c r="E89" s="3">
         <v>175400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>928000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>655000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1896000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1301300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1273300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-472800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1911400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-950100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-385100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>25700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-202200</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4593,8 +4810,11 @@
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4614,19 +4834,20 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-900</v>
       </c>
       <c r="F91" s="3">
-        <v>700</v>
+        <v>-700</v>
       </c>
       <c r="G91" s="3">
         <v>-2200</v>
@@ -4641,23 +4862,23 @@
         <v>-2700</v>
       </c>
       <c r="K91" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="L91" s="3">
         <v>-4100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-9900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2400</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4667,8 +4888,11 @@
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4720,8 +4944,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4773,50 +5000,53 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E94" s="3">
         <v>159700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>2300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>230100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>379800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>138800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>95200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-21400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-9900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2400</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4826,8 +5056,11 @@
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4847,8 +5080,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4859,7 +5093,7 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-5600</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
         <v>-5600</v>
@@ -4868,7 +5102,7 @@
         <v>-5600</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-5600</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -4900,8 +5134,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4953,8 +5190,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5006,8 +5246,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5059,50 +5302,53 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-137000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-375000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-944800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-919900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2285900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1435500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1128300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>485900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1979700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>838100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>626700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>65800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>210900</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5112,8 +5358,11 @@
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5165,50 +5414,53 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-39800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-14500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-34800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-10100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>4700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-49700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-8300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>64300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-116500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>231700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>88200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>6300</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5216,6 +5468,9 @@
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
